--- a/patient_data/patient_78.xlsx
+++ b/patient_data/patient_78.xlsx
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
